--- a/app/libfiles/VE2s标准IO_CMM103.xlsx
+++ b/app/libfiles/VE2s标准IO_CMM103.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="807" activeTab="3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="535">
   <si>
     <t>Temperature Input(温度输入)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2145,6 +2145,14 @@
   </si>
   <si>
     <t>Flexible output 2</t>
+  </si>
+  <si>
+    <t>加热七区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heater zone 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2439,16 +2447,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2464,14 +2474,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5661,11 +5669,11 @@
   <dimension ref="A1:E775"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E164" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E185" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:D1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G185" sqref="G185"/>
+      <selection pane="bottomRight" activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5699,12 +5707,12 @@
       <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -5718,10 +5726,10 @@
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="54" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4"/>
@@ -5730,18 +5738,18 @@
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="64"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="54" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4"/>
@@ -5750,18 +5758,18 @@
       <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="64"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="54" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4"/>
@@ -5770,8 +5778,8 @@
       <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="64"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5786,10 +5794,10 @@
       <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="4"/>
@@ -5798,18 +5806,18 @@
       <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="64"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="54" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="4"/>
@@ -5818,18 +5826,18 @@
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="53" t="s">
         <v>501</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="54" t="s">
         <v>502</v>
       </c>
       <c r="D16" s="4"/>
@@ -5838,8 +5846,8 @@
       <c r="A17" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="64"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5854,26 +5862,26 @@
       <c r="A19" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="54" t="s">
         <v>242</v>
       </c>
       <c r="D21" s="4"/>
@@ -5882,18 +5890,18 @@
       <c r="A22" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="64"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="69" t="s">
         <v>510</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="70" t="s">
         <v>511</v>
       </c>
       <c r="D23" s="4"/>
@@ -5902,8 +5910,8 @@
       <c r="A24" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5918,42 +5926,42 @@
       <c r="A26" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="70"/>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="56" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="4"/>
@@ -5962,17 +5970,17 @@
       <c r="A31" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -5998,10 +6006,10 @@
       <c r="A35" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="53" t="s">
         <v>422</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="60" t="s">
         <v>425</v>
       </c>
       <c r="D35" s="4"/>
@@ -6010,8 +6018,8 @@
       <c r="A36" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="54"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -6042,10 +6050,10 @@
       <c r="A39" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="53" t="s">
         <v>421</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="60" t="s">
         <v>426</v>
       </c>
       <c r="D39" s="4"/>
@@ -6054,8 +6062,8 @@
       <c r="A40" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="54"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="61"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -6190,10 +6198,10 @@
       <c r="A53" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="B53" s="56" t="s">
+      <c r="B53" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="64" t="s">
         <v>340</v>
       </c>
       <c r="D53" s="4"/>
@@ -6202,8 +6210,8 @@
       <c r="A54" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="B54" s="57"/>
-      <c r="C54" s="54"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="61"/>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -6234,10 +6242,10 @@
       <c r="A57" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="C57" s="64" t="s">
         <v>340</v>
       </c>
       <c r="D57" s="4"/>
@@ -6246,8 +6254,8 @@
       <c r="A58" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="B58" s="57"/>
-      <c r="C58" s="54"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="61"/>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -6286,16 +6294,16 @@
       <c r="A62" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="B62" s="59"/>
-      <c r="C62" s="61"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="67"/>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="B63" s="60"/>
-      <c r="C63" s="62"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="68"/>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -6326,16 +6334,16 @@
       <c r="A66" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="B66" s="59"/>
-      <c r="C66" s="61"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="67"/>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="B67" s="60"/>
-      <c r="C67" s="62"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="68"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -6351,12 +6359,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
@@ -7087,12 +7095,12 @@
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A133" s="52" t="s">
+      <c r="A133" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B133" s="52"/>
-      <c r="C133" s="52"/>
-      <c r="D133" s="52"/>
+      <c r="B133" s="58"/>
+      <c r="C133" s="58"/>
+      <c r="D133" s="58"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
@@ -7864,8 +7872,12 @@
       <c r="A202" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="B202" s="4"/>
-      <c r="C202" s="10"/>
+      <c r="B202" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>534</v>
+      </c>
       <c r="D202" s="4"/>
       <c r="E202" s="8"/>
     </row>
@@ -8006,9 +8018,9 @@
       <c r="A215" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="B215" s="65"/>
-      <c r="C215" s="65"/>
-      <c r="D215" s="66"/>
+      <c r="B215" s="50"/>
+      <c r="C215" s="50"/>
+      <c r="D215" s="51"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
@@ -8022,9 +8034,9 @@
       <c r="A217" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="B217" s="65"/>
-      <c r="C217" s="65"/>
-      <c r="D217" s="67"/>
+      <c r="B217" s="50"/>
+      <c r="C217" s="50"/>
+      <c r="D217" s="52"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
@@ -11352,6 +11364,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="A215:D215"/>
     <mergeCell ref="A217:D217"/>
     <mergeCell ref="B16:B17"/>
@@ -11368,32 +11406,6 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/libfiles/VE2s标准IO_CMM103.xlsx
+++ b/app/libfiles/VE2s标准IO_CMM103.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="533">
   <si>
     <t>Temperature Input(温度输入)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1009,1149 +1009,1141 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>模具顶板回退确认信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模内压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关模完（机械手）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前安全门关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后安全门关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注射防护罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托模退止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调模退止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调模进止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整移进止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整移退止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品脱落检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械保险检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷嘴接触检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷嘴过冲检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注射进止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射退止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许关模（机械手）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模区安全（机械手）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械手操作（机械手）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许顶退（机械手）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许顶出（机械手）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许中子退（机械手）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许中子进（机械手）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许完全开模（机械手）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中子A进止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中子A退止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中子B进止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中子B退止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械手紧停（机械手）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注射座旋转检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合模顶盖安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>润滑压力开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>润年油位开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相序检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中子C进终</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中子C退终</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前安全门电磁锁反锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后安全门电磁锁反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>润滑油泵停止信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全继电器反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中子泵站反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水质过滤器反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开模到底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注射丝杠风扇报警（包装机）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马达启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马达停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调模进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调模后退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整移进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整移退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整移抱闸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>润滑马达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹气1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹气2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹气3</t>
+  </si>
+  <si>
+    <t>吹气4</t>
+  </si>
+  <si>
+    <t>落料口水阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色警报灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷嘴开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷嘴关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开模完（机械手）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱模退止（机械手）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱模进止（机械手）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中子退止（机械手）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中子进止（机械手）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开模中途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许机械手操作（机械手）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中子A进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中子B进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中子A退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中子B退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂鸣器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良品（机械手）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色警报灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色警报灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁锁信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可编程IO_输出1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可编程IO_输出2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中子C进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中子C退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encoder A Phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encoder B Phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Safetylock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eje. Platen Home Sensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ext. reject input signal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Used</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mold Clamp End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front Door Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rear Door Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inj. GuardClosed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emergency Stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eject Return End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mold Adjust Fwd End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mold Adjust Bwd End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inj. Unit Fwd End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inj. Unit Bwd End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product Drop Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mechanical Safety Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nozzle Touch Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inj. Fwd End(ZeroPos)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nozzel Overrun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suck Back End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mold Chose Enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mold Area Safety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robot Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ejector Bwd Enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ejector Fwd Enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core Out Enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core In Enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comp. Mold Open Enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core A In End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core A Out End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core B In End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core B Out End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robot Emergency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cycle Stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cycle Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inject Unit Rotated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mold Top Guard Satety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lub Pressure Relay(Pre. Lease)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lubrication Oil Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Three Phases Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core C In</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core C Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Safety Lock State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Safety Rear Door Lock State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lubrication Motor Stopped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Safety Relay Feedback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core Pump Feedback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Door</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mold Open Limit Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inj. Screw Cooling Fan Monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motor On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motor Stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mold Adjust Fwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mold Adjust Bwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inj. Unit Fwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inj. Unit Bwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inj. Unit Motor Brake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lubrication Motor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Air Blow 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Air Blow 2</t>
+  </si>
+  <si>
+    <t>Air Blow 3</t>
+  </si>
+  <si>
+    <t>Air Blow 4</t>
+  </si>
+  <si>
+    <t>Water Valve For Hopper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red Alarm Lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shut Off Nozzle Open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shut Off Nozzle Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mold Open End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eject Bwd End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eject Fwd End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core Out End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core In End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intermediate Mold Open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto Cycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core A In</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core A Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core B In</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core B Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buzzer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rejected Piece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yellow Alarm Lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Green Alarm Lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Safety Lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core Pump Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Program I/O Output 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Program I/O Output 2</t>
+  </si>
+  <si>
+    <t>锁模力传感器（选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注射压力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液压压力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液压流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inject Pressure Sensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clamp Sensor(Option)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydraulic Pressure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydraulic Flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中子泵开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电热接触器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heat Contactor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001A601</t>
+  </si>
+  <si>
+    <t>SIGMATEK中央处理器（ZE）</t>
+  </si>
+  <si>
+    <t>CCP621</t>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主底板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成式IO板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展底板一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展底板二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热流道箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前IO表版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧IO表版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.09.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹浩龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始版本新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VEIIs_St_0.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hardware：CCP 621</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端子X1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB Host 2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端子X2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethernet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端子X3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARAN Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主底板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合模KEB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储料KEB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注射KEB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端子X4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN Bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端子X5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-DVI (26-pin HD-DSUB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端子X6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB Device 1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端子X7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+24V供电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+24V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端子X8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>micro SD card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶出KEB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同订单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件相关条款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热电偶六区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zone 6 Temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主底板扩展槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开门止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Door In End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011A678XA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMM103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hardware：CMM103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T9-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热电偶七区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zone 7 Temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T9+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端子X8_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T10-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T10+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T11-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T11+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端子X9_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI5+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI5-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI6+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI6-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMM103 +24V供电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VEIIs_St_0.0.1</t>
+  </si>
+  <si>
+    <t>2019.03.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪百丰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMM102改CMM103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座台维护模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inj.Unit maintenance mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>前安全门关2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后安全门关2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模具顶板回退确认信号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模内压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关模完（机械手）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前安全门关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后安全门关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注射防护罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧停</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>托模退止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调模退止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调模进止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整移进止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整移退止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品脱落检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机械保险检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喷嘴接触检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喷嘴过冲检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注射进止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>射退止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许关模（机械手）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模区安全（机械手）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机械手操作（机械手）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许顶退（机械手）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许顶出（机械手）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许中子退（机械手）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许中子进（机械手）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许完全开模（机械手）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中子A进止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中子A退止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中子B进止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中子B退止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机械手紧停（机械手）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>循环停止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>循环启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注射座旋转检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合模顶盖安全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>润滑压力开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>润年油位开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相序检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中子C进终</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中子C退终</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前安全门电磁锁反锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后安全门电磁锁反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>润滑油泵停止信号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全继电器反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中子泵站反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水质过滤器反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开模到底</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注射丝杠风扇报警（包装机）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马达启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马达停止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调模进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调模后退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整移进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整移退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整移抱闸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>润滑马达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吹气1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吹气2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吹气3</t>
-  </si>
-  <si>
-    <t>吹气4</t>
-  </si>
-  <si>
-    <t>落料口水阀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色警报灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喷嘴开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喷嘴关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开模完（机械手）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脱模退止（机械手）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脱模进止（机械手）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中子退止（机械手）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中子进止（机械手）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开模中途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许机械手操作（机械手）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中子A进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中子B进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中子A退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中子B退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜂鸣器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良品（机械手）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄色警报灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色警报灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电磁锁信号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中子C进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中子C退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Encoder A Phase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Encoder B Phase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open Safetylock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Front Door Close 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rear Door Close 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eje. Platen Home Sensor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ext. reject input signal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not Used</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mold Clamp End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Front Door Close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rear Door Close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inj. GuardClosed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emergency Stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eject Return End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mold Adjust Fwd End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mold Adjust Bwd End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inj. Unit Fwd End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inj. Unit Bwd End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product Drop Check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mechanical Safety Check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nozzle Touch Check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inj. Fwd End(ZeroPos)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nozzel Overrun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suck Back End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mold Chose Enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mold Area Safety</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Robot Mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ejector Bwd Enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ejector Fwd Enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core Out Enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core In Enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comp. Mold Open Enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core A In End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core A Out End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core B In End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core B Out End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Robot Emergency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cycle Stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cycle Start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inject Unit Rotated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mold Top Guard Satety</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lub Pressure Relay(Pre. Lease)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lubrication Oil Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Three Phases Error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core C In</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core C Out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Safety Lock State</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Safety Rear Door Lock State</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lubrication Motor Stopped</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Safety Relay Feedback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core Pump Feedback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix Door</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water Filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mold Open Limit Switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inj. Screw Cooling Fan Monitor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Motor On</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Motor Stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mold Adjust Fwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mold Adjust Bwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inj. Unit Fwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inj. Unit Bwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inj. Unit Motor Brake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lubrication Motor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Air Blow 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Air Blow 2</t>
-  </si>
-  <si>
-    <t>Air Blow 3</t>
-  </si>
-  <si>
-    <t>Air Blow 4</t>
-  </si>
-  <si>
-    <t>Water Valve For Hopper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Red Alarm Lamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shut Off Nozzle Open</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shut Off Nozzle Close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mold Open End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eject Bwd End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eject Fwd End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core Out End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core In End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intermediate Mold Open</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auto Cycle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core A In</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core A Out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core B In</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core B Out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buzzer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rejected Piece</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yellow Alarm Lamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Green Alarm Lamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Safety Lock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core Pump Switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁模力传感器（选）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注射压力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>液压压力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>液压流量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inject Pressure Sensor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clamp Sensor(Option)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hydraulic Pressure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hydraulic Flow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中子泵开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电热接触器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heat Contactor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001A601</t>
-  </si>
-  <si>
-    <t>SIGMATEK中央处理器（ZE）</t>
-  </si>
-  <si>
-    <t>CCP621</t>
-  </si>
-  <si>
-    <t>编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主底板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成式IO板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩展底板一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩展底板二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热流道箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊功能模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前IO表版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旧IO表版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.09.08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹浩龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始版本新建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VEIIs_St_0.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hardware：CCP 621</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端子X1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB Host 2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端子X2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethernet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端子X3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARAN Out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主底板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合模KEB1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储料KEB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注射KEB1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端子X4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAN Bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端子X5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S-DVI (26-pin HD-DSUB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端子X6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB Device 1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端子X7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+24V供电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+24V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端子X8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>micro SD card</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶出KEB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同订单编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产订单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件相关条款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热电偶六区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zone 6 Temperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主底板扩展槽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开门止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open Door In End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011A678XA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMM103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hardware：CMM103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T9-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热电偶七区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zone 7 Temperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T9+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端子X8_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T10-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T10+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T11-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T11+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端子X9_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI5+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI5-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI6+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI6-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMM103 +24V供电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VEIIs_St_0.0.1</t>
-  </si>
-  <si>
-    <t>2019.03.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪百丰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMM102改CMM103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能点1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flexible output 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能点2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flexible output 2</t>
-  </si>
-  <si>
-    <t>加热七区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heater zone 7</t>
+    <t>Front Door Closed 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2447,18 +2439,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2474,12 +2464,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5669,11 +5661,11 @@
   <dimension ref="A1:E775"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E185" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E62" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:D1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C202" sqref="C202"/>
+      <selection pane="bottomRight" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5707,12 +5699,12 @@
       <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -5726,10 +5718,10 @@
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="64" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4"/>
@@ -5738,18 +5730,18 @@
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="64" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4"/>
@@ -5758,18 +5750,18 @@
       <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="64" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4"/>
@@ -5778,8 +5770,8 @@
       <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5794,10 +5786,10 @@
       <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="64" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="4"/>
@@ -5806,18 +5798,18 @@
       <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="64" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="4"/>
@@ -5826,18 +5818,18 @@
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="55" t="s">
         <v>501</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="64" t="s">
         <v>502</v>
       </c>
       <c r="D16" s="4"/>
@@ -5846,8 +5838,8 @@
       <c r="A17" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5862,26 +5854,26 @@
       <c r="A19" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="64" t="s">
         <v>242</v>
       </c>
       <c r="D21" s="4"/>
@@ -5890,18 +5882,18 @@
       <c r="A22" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="50" t="s">
         <v>510</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="51" t="s">
         <v>511</v>
       </c>
       <c r="D23" s="4"/>
@@ -5910,8 +5902,8 @@
       <c r="A24" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="70"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5926,42 +5918,42 @@
       <c r="A26" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="70"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="70"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="70"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="70"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="69" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="4"/>
@@ -5970,17 +5962,17 @@
       <c r="A31" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="56"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="69"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -6006,10 +5998,10 @@
       <c r="A35" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="55" t="s">
         <v>422</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="53" t="s">
         <v>425</v>
       </c>
       <c r="D35" s="4"/>
@@ -6018,8 +6010,8 @@
       <c r="A36" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="61"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -6050,10 +6042,10 @@
       <c r="A39" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="55" t="s">
         <v>421</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="53" t="s">
         <v>426</v>
       </c>
       <c r="D39" s="4"/>
@@ -6062,8 +6054,8 @@
       <c r="A40" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="61"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -6198,11 +6190,11 @@
       <c r="A53" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="B53" s="62" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="64" t="s">
-        <v>340</v>
+      <c r="B53" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="58" t="s">
+        <v>338</v>
       </c>
       <c r="D53" s="4"/>
     </row>
@@ -6210,8 +6202,8 @@
       <c r="A54" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="B54" s="63"/>
-      <c r="C54" s="61"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -6242,11 +6234,11 @@
       <c r="A57" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="62" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="64" t="s">
-        <v>340</v>
+      <c r="B57" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="58" t="s">
+        <v>338</v>
       </c>
       <c r="D57" s="4"/>
     </row>
@@ -6254,8 +6246,8 @@
       <c r="A58" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="B58" s="63"/>
-      <c r="C58" s="61"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="54"/>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -6294,16 +6286,16 @@
       <c r="A62" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="B62" s="65"/>
-      <c r="C62" s="67"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="61"/>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="B63" s="66"/>
-      <c r="C63" s="68"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="62"/>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -6334,16 +6326,16 @@
       <c r="A66" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="B66" s="65"/>
-      <c r="C66" s="67"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="61"/>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="B67" s="66"/>
-      <c r="C67" s="68"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="62"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -6359,12 +6351,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="58" t="s">
+      <c r="A69" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="58"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
@@ -6414,11 +6406,11 @@
       <c r="A74" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>336</v>
+      <c r="B74" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="C74" s="40" t="s">
+        <v>530</v>
       </c>
       <c r="D74" s="4"/>
     </row>
@@ -6426,11 +6418,11 @@
       <c r="A75" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>337</v>
+      <c r="B75" s="39" t="s">
+        <v>531</v>
+      </c>
+      <c r="C75" s="40" t="s">
+        <v>532</v>
       </c>
       <c r="D75" s="4"/>
     </row>
@@ -6439,10 +6431,10 @@
         <v>42</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D76" s="4"/>
     </row>
@@ -6451,10 +6443,10 @@
         <v>43</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D77" s="4"/>
     </row>
@@ -6483,10 +6475,10 @@
         <v>46</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D80" s="4"/>
     </row>
@@ -6495,10 +6487,10 @@
         <v>47</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D81" s="4"/>
     </row>
@@ -6507,10 +6499,10 @@
         <v>48</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D82" s="4"/>
     </row>
@@ -6519,10 +6511,10 @@
         <v>49</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D83" s="4"/>
     </row>
@@ -6531,10 +6523,10 @@
         <v>50</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D84" s="4"/>
     </row>
@@ -6543,10 +6535,10 @@
         <v>51</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D85" s="4"/>
     </row>
@@ -6555,10 +6547,10 @@
         <v>52</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D86" s="4"/>
     </row>
@@ -6567,10 +6559,10 @@
         <v>53</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D87" s="4"/>
     </row>
@@ -6587,10 +6579,10 @@
         <v>54</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D89" s="4"/>
     </row>
@@ -6599,10 +6591,10 @@
         <v>55</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D90" s="4"/>
     </row>
@@ -6611,10 +6603,10 @@
         <v>56</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D91" s="4"/>
     </row>
@@ -6623,10 +6615,10 @@
         <v>57</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D92" s="4"/>
     </row>
@@ -6635,10 +6627,10 @@
         <v>58</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D93" s="4"/>
     </row>
@@ -6647,10 +6639,10 @@
         <v>59</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D94" s="4"/>
     </row>
@@ -6659,10 +6651,10 @@
         <v>60</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D95" s="4"/>
     </row>
@@ -6671,10 +6663,10 @@
         <v>61</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D96" s="4"/>
     </row>
@@ -6691,10 +6683,10 @@
         <v>69</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D98" s="4"/>
     </row>
@@ -6703,10 +6695,10 @@
         <v>70</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D99" s="4"/>
     </row>
@@ -6715,10 +6707,10 @@
         <v>71</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D100" s="4"/>
     </row>
@@ -6727,10 +6719,10 @@
         <v>72</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D101" s="4"/>
     </row>
@@ -6739,10 +6731,10 @@
         <v>73</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D102" s="4"/>
     </row>
@@ -6751,10 +6743,10 @@
         <v>74</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D103" s="4"/>
     </row>
@@ -6763,10 +6755,10 @@
         <v>75</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D104" s="4"/>
     </row>
@@ -6775,10 +6767,10 @@
         <v>76</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D105" s="4"/>
     </row>
@@ -6795,10 +6787,10 @@
         <v>77</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D107" s="4"/>
     </row>
@@ -6807,10 +6799,10 @@
         <v>78</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D108" s="4"/>
     </row>
@@ -6819,10 +6811,10 @@
         <v>79</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D109" s="4"/>
     </row>
@@ -6831,10 +6823,10 @@
         <v>80</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D110" s="4"/>
     </row>
@@ -6843,10 +6835,10 @@
         <v>81</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D111" s="4"/>
     </row>
@@ -6855,10 +6847,10 @@
         <v>82</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D112" s="4"/>
     </row>
@@ -6867,10 +6859,10 @@
         <v>83</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D113" s="4"/>
     </row>
@@ -6879,10 +6871,10 @@
         <v>84</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D114" s="4"/>
     </row>
@@ -6899,10 +6891,10 @@
         <v>86</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D116" s="4"/>
     </row>
@@ -6911,10 +6903,10 @@
         <v>87</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D117" s="4"/>
     </row>
@@ -6923,10 +6915,10 @@
         <v>88</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D118" s="4"/>
     </row>
@@ -6935,10 +6927,10 @@
         <v>89</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D119" s="4"/>
     </row>
@@ -6947,10 +6939,10 @@
         <v>90</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D120" s="4"/>
     </row>
@@ -6959,10 +6951,10 @@
         <v>91</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D121" s="4"/>
     </row>
@@ -6971,10 +6963,10 @@
         <v>92</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D122" s="4"/>
     </row>
@@ -6983,10 +6975,10 @@
         <v>93</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D123" s="4"/>
     </row>
@@ -7003,10 +6995,10 @@
         <v>95</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D125" s="4"/>
     </row>
@@ -7015,10 +7007,10 @@
         <v>96</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D126" s="4"/>
     </row>
@@ -7027,10 +7019,10 @@
         <v>97</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D127" s="4"/>
     </row>
@@ -7039,10 +7031,10 @@
         <v>98</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D128" s="4"/>
     </row>
@@ -7051,10 +7043,10 @@
         <v>99</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D129" s="4"/>
     </row>
@@ -7063,10 +7055,10 @@
         <v>100</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D130" s="4"/>
     </row>
@@ -7075,10 +7067,10 @@
         <v>101</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D131" s="4"/>
     </row>
@@ -7087,20 +7079,20 @@
         <v>102</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A133" s="58" t="s">
+      <c r="A133" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="B133" s="58"/>
-      <c r="C133" s="58"/>
-      <c r="D133" s="58"/>
+      <c r="B133" s="52"/>
+      <c r="C133" s="52"/>
+      <c r="D133" s="52"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
@@ -7115,10 +7107,10 @@
         <v>105</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D135" s="4"/>
     </row>
@@ -7127,10 +7119,10 @@
         <v>106</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D136" s="4"/>
     </row>
@@ -7139,10 +7131,10 @@
         <v>107</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D137" s="4"/>
     </row>
@@ -7151,10 +7143,10 @@
         <v>108</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D138" s="4"/>
     </row>
@@ -7171,10 +7163,10 @@
         <v>110</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D140" s="4"/>
     </row>
@@ -7183,10 +7175,10 @@
         <v>111</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D141" s="4"/>
     </row>
@@ -7195,10 +7187,10 @@
         <v>112</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D142" s="4"/>
     </row>
@@ -7207,10 +7199,10 @@
         <v>113</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D143" s="4"/>
     </row>
@@ -7227,10 +7219,10 @@
         <v>128</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D145" s="4"/>
     </row>
@@ -7239,10 +7231,10 @@
         <v>129</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D146" s="4"/>
     </row>
@@ -7251,10 +7243,10 @@
         <v>130</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D147" s="4"/>
     </row>
@@ -7263,10 +7255,10 @@
         <v>131</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D148" s="4"/>
     </row>
@@ -7283,10 +7275,10 @@
         <v>133</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D150" s="4"/>
     </row>
@@ -7295,10 +7287,10 @@
         <v>134</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D151" s="4"/>
     </row>
@@ -7307,10 +7299,10 @@
         <v>135</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D152" s="4"/>
     </row>
@@ -7319,10 +7311,10 @@
         <v>136</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D153" s="4"/>
     </row>
@@ -7395,10 +7387,10 @@
         <v>138</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D160" s="4"/>
     </row>
@@ -7407,10 +7399,10 @@
         <v>139</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D161" s="4"/>
     </row>
@@ -7419,10 +7411,10 @@
         <v>140</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D162" s="4"/>
     </row>
@@ -7431,10 +7423,10 @@
         <v>141</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D163" s="4"/>
     </row>
@@ -7451,10 +7443,10 @@
         <v>143</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D165" s="4"/>
     </row>
@@ -7463,10 +7455,10 @@
         <v>144</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D166" s="4"/>
     </row>
@@ -7475,10 +7467,10 @@
         <v>145</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D167" s="4"/>
     </row>
@@ -7487,10 +7479,10 @@
         <v>146</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D168" s="4"/>
     </row>
@@ -7507,10 +7499,10 @@
         <v>148</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D170" s="4"/>
     </row>
@@ -7519,10 +7511,10 @@
         <v>149</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D171" s="4"/>
     </row>
@@ -7531,10 +7523,10 @@
         <v>150</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D172" s="4"/>
     </row>
@@ -7543,10 +7535,10 @@
         <v>151</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D173" s="4"/>
     </row>
@@ -7563,10 +7555,10 @@
         <v>153</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D175" s="4"/>
     </row>
@@ -7575,10 +7567,10 @@
         <v>154</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D176" s="4"/>
     </row>
@@ -7587,10 +7579,10 @@
         <v>155</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D177" s="4"/>
     </row>
@@ -7599,10 +7591,10 @@
         <v>156</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D178" s="4"/>
     </row>
@@ -7675,10 +7667,10 @@
         <v>171</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D185" s="4"/>
     </row>
@@ -7690,7 +7682,7 @@
         <v>429</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D186" s="4"/>
     </row>
@@ -7698,11 +7690,11 @@
       <c r="A187" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B187" s="39" t="s">
-        <v>529</v>
-      </c>
-      <c r="C187" s="40" t="s">
-        <v>530</v>
+      <c r="B187" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>419</v>
       </c>
       <c r="D187" s="4"/>
     </row>
@@ -7710,11 +7702,11 @@
       <c r="A188" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B188" s="39" t="s">
-        <v>531</v>
-      </c>
-      <c r="C188" s="40" t="s">
-        <v>532</v>
+      <c r="B188" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>420</v>
       </c>
       <c r="D188" s="4"/>
     </row>
@@ -7734,7 +7726,7 @@
         <v>330</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D190" s="4"/>
     </row>
@@ -7746,7 +7738,7 @@
         <v>331</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D191" s="4"/>
     </row>
@@ -7755,10 +7747,10 @@
         <v>178</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D192" s="4"/>
     </row>
@@ -7770,7 +7762,7 @@
         <v>332</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D193" s="4"/>
     </row>
@@ -7872,12 +7864,8 @@
       <c r="A202" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="B202" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="C202" s="10" t="s">
-        <v>534</v>
-      </c>
+      <c r="B202" s="4"/>
+      <c r="C202" s="10"/>
       <c r="D202" s="4"/>
       <c r="E202" s="8"/>
     </row>
@@ -8018,9 +8006,9 @@
       <c r="A215" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="B215" s="50"/>
-      <c r="C215" s="50"/>
-      <c r="D215" s="51"/>
+      <c r="B215" s="65"/>
+      <c r="C215" s="65"/>
+      <c r="D215" s="66"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
@@ -8034,9 +8022,9 @@
       <c r="A217" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="B217" s="50"/>
-      <c r="C217" s="50"/>
-      <c r="D217" s="52"/>
+      <c r="B217" s="65"/>
+      <c r="C217" s="65"/>
+      <c r="D217" s="67"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
@@ -11364,32 +11352,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
     <mergeCell ref="A215:D215"/>
     <mergeCell ref="A217:D217"/>
     <mergeCell ref="B16:B17"/>
@@ -11406,6 +11368,32 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
